--- a/easy-trade/easy-tms/src/main/webapp/excel/SubOrderExcel.xlsx
+++ b/easy-trade/easy-tms/src/main/webapp/excel/SubOrderExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>商品订单记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,10 @@
   </si>
   <si>
     <t>订单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品子订单记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,7 +583,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -601,7 +605,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6"/>
+      <c r="A1" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
